--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_TechGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="38" r:id="rId1"/>
@@ -667,6 +667,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -697,15 +703,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -715,10 +712,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1027,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1060,43 +1060,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1141,58 +1141,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="73" t="s">
+      <c r="K4" s="78"/>
+      <c r="L4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1223,17 +1223,17 @@
       <c r="K5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1244,14 +1244,14 @@
         <v>44930</v>
       </c>
       <c r="C6" s="63"/>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="69">
         <v>868183034602594</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84" t="s">
+      <c r="F6" s="68"/>
+      <c r="G6" s="68" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="37"/>
@@ -1267,7 +1267,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1298,7 +1298,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1327,7 +1327,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1356,7 +1356,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1385,7 +1385,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1414,7 +1414,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1443,7 +1443,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1474,7 +1474,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1532,7 +1532,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1561,7 +1561,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2792,13 +2792,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2810,6 +2803,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2820,7 +2820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -2853,43 +2853,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -2934,58 +2934,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="73" t="s">
+      <c r="K4" s="78"/>
+      <c r="L4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3016,17 +3016,17 @@
       <c r="K5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3037,14 +3037,14 @@
         <v>44930</v>
       </c>
       <c r="C6" s="63"/>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="69">
         <v>868183038020934</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84" t="s">
+      <c r="F6" s="68"/>
+      <c r="G6" s="68" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="37"/>
@@ -3060,7 +3060,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3076,14 +3076,14 @@
         <v>44930</v>
       </c>
       <c r="C7" s="63"/>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="69">
         <v>868183033853826</v>
       </c>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84" t="s">
+      <c r="F7" s="68"/>
+      <c r="G7" s="68" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="37"/>
@@ -3099,7 +3099,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3113,14 +3113,14 @@
         <v>44930</v>
       </c>
       <c r="C8" s="63"/>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="85">
+      <c r="E8" s="69">
         <v>868183034789904</v>
       </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84" t="s">
+      <c r="F8" s="68"/>
+      <c r="G8" s="68" t="s">
         <v>65</v>
       </c>
       <c r="H8" s="12"/>
@@ -3136,7 +3136,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3150,14 +3150,14 @@
         <v>44930</v>
       </c>
       <c r="C9" s="63"/>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="69">
         <v>868183037845562</v>
       </c>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84" t="s">
+      <c r="F9" s="68"/>
+      <c r="G9" s="68" t="s">
         <v>65</v>
       </c>
       <c r="H9" s="1"/>
@@ -3173,7 +3173,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3187,14 +3187,14 @@
         <v>44930</v>
       </c>
       <c r="C10" s="63"/>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="69">
         <v>868183038588302</v>
       </c>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84" t="s">
+      <c r="F10" s="68"/>
+      <c r="G10" s="68" t="s">
         <v>65</v>
       </c>
       <c r="H10" s="1"/>
@@ -3210,7 +3210,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3224,14 +3224,14 @@
         <v>44930</v>
       </c>
       <c r="C11" s="63"/>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="69">
         <v>868183033827580</v>
       </c>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84" t="s">
+      <c r="F11" s="68"/>
+      <c r="G11" s="68" t="s">
         <v>65</v>
       </c>
       <c r="H11" s="37"/>
@@ -3247,7 +3247,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3276,7 +3276,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3307,7 +3307,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3336,7 +3336,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3365,7 +3365,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3394,7 +3394,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4625,6 +4625,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4636,13 +4643,6 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4686,43 +4686,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -4767,58 +4767,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="73" t="s">
+      <c r="K4" s="78"/>
+      <c r="L4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -4849,17 +4849,17 @@
       <c r="K5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4870,14 +4870,14 @@
         <v>44930</v>
       </c>
       <c r="C6" s="63"/>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="69">
         <v>868345031031669</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84" t="s">
+      <c r="F6" s="68"/>
+      <c r="G6" s="68" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="37"/>
@@ -4893,7 +4893,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4909,14 +4909,14 @@
         <v>44930</v>
       </c>
       <c r="C7" s="63"/>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="69">
         <v>868345035617455</v>
       </c>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84" t="s">
+      <c r="F7" s="68"/>
+      <c r="G7" s="68" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="37"/>
@@ -4932,7 +4932,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4961,7 +4961,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4990,7 +4990,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5019,7 +5019,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5048,7 +5048,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5077,7 +5077,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5108,7 +5108,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5137,7 +5137,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5166,7 +5166,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5195,7 +5195,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6426,13 +6426,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6444,6 +6437,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6487,43 +6487,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -6568,58 +6568,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="73" t="s">
+      <c r="K4" s="78"/>
+      <c r="L4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -6650,17 +6650,17 @@
       <c r="K5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6671,14 +6671,14 @@
         <v>44930</v>
       </c>
       <c r="C6" s="63"/>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="69">
         <v>861694031130071</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84" t="s">
+      <c r="F6" s="68"/>
+      <c r="G6" s="68" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="37"/>
@@ -6694,7 +6694,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6710,14 +6710,14 @@
         <v>44930</v>
       </c>
       <c r="C7" s="63"/>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="69">
         <v>866104024631585</v>
       </c>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84" t="s">
+      <c r="F7" s="68"/>
+      <c r="G7" s="68" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="37"/>
@@ -6733,7 +6733,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6762,7 +6762,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6791,7 +6791,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6820,7 +6820,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6849,7 +6849,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6878,7 +6878,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6909,7 +6909,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6938,7 +6938,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6967,7 +6967,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6996,7 +6996,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8227,13 +8227,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8245,6 +8238,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8288,43 +8288,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -8369,58 +8369,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="73" t="s">
+      <c r="K4" s="78"/>
+      <c r="L4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -8451,17 +8451,17 @@
       <c r="K5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8472,14 +8472,14 @@
         <v>44930</v>
       </c>
       <c r="C6" s="63"/>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="69">
         <v>869668021846187</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84" t="s">
+      <c r="F6" s="68"/>
+      <c r="G6" s="68" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="37"/>
@@ -8495,7 +8495,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8511,14 +8511,14 @@
         <v>44930</v>
       </c>
       <c r="C7" s="63"/>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="69">
         <v>867330023790176</v>
       </c>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84" t="s">
+      <c r="F7" s="68"/>
+      <c r="G7" s="68" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="37"/>
@@ -8534,7 +8534,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8548,14 +8548,14 @@
         <v>44930</v>
       </c>
       <c r="C8" s="63"/>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="85">
+      <c r="E8" s="69">
         <v>867330065866153</v>
       </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84" t="s">
+      <c r="F8" s="68"/>
+      <c r="G8" s="68" t="s">
         <v>65</v>
       </c>
       <c r="H8" s="12"/>
@@ -8571,7 +8571,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8600,7 +8600,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8629,7 +8629,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8658,7 +8658,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8687,7 +8687,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8718,7 +8718,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8747,7 +8747,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8776,7 +8776,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8805,7 +8805,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10036,13 +10036,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10054,6 +10047,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10097,43 +10097,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -10178,58 +10178,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="73" t="s">
+      <c r="K4" s="78"/>
+      <c r="L4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -10260,17 +10260,17 @@
       <c r="K5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10281,14 +10281,14 @@
         <v>44930</v>
       </c>
       <c r="C6" s="63"/>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="69">
         <v>864161026901723</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84" t="s">
+      <c r="F6" s="68"/>
+      <c r="G6" s="68" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="37"/>
@@ -10304,7 +10304,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10320,14 +10320,14 @@
         <v>44930</v>
       </c>
       <c r="C7" s="63"/>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="69">
         <v>865904207277885</v>
       </c>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84" t="s">
+      <c r="F7" s="68"/>
+      <c r="G7" s="68" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="37"/>
@@ -10343,7 +10343,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10372,7 +10372,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10401,7 +10401,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10430,7 +10430,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10459,7 +10459,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10488,7 +10488,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10519,7 +10519,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10548,7 +10548,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10577,7 +10577,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10606,7 +10606,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -11837,13 +11837,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -11855,6 +11848,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11898,43 +11898,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -11979,58 +11979,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -12055,23 +12055,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12097,7 +12097,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12128,7 +12128,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12157,7 +12157,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12186,7 +12186,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12215,7 +12215,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12244,7 +12244,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12273,7 +12273,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12304,7 +12304,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12333,7 +12333,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12362,7 +12362,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12391,7 +12391,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13622,6 +13622,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13633,13 +13640,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_TechGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="38" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="104">
   <si>
     <t>STT</t>
   </si>
@@ -260,6 +260,105 @@
   <si>
     <t>TG007X</t>
   </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>203.162.121.024,01202</t>
+  </si>
+  <si>
+    <t>Lỗi giao tiếp cổng COM</t>
+  </si>
+  <si>
+    <t>Xử lý lại cổng COM</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>14.225.7.16,09207</t>
+  </si>
+  <si>
+    <t>Lỗi module GSM/GPS</t>
+  </si>
+  <si>
+    <t>Thay module GSM/GPS</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>221.132.035.067,30214</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GSM</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180710</t>
+  </si>
+  <si>
+    <t>203.162.121.025,09207</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t>Thay tụ lọc nguồn</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
+  </si>
+  <si>
+    <t>014.225.007.016,09207</t>
+  </si>
+  <si>
+    <t>Thay tụ diode qua áp</t>
+  </si>
+  <si>
+    <t>Thiết bị không quẹt được thẻ RFID</t>
+  </si>
+  <si>
+    <t>Cấu hình lại thiết bị</t>
+  </si>
+  <si>
+    <t>LE.1.00.---04.181025</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nổ nguồn</t>
+  </si>
+  <si>
+    <t>Thay cầu chì, diode quá áp, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>203.162.121.026,09007</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Thiết bị dấu hiệu nước vào gây ẩm mốc main</t>
+  </si>
+  <si>
+    <t>Xử lý lại main</t>
+  </si>
+  <si>
+    <t>014.225.007.016,01102</t>
+  </si>
 </sst>
 </file>
 
@@ -464,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -672,6 +771,9 @@
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1027,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1060,43 +1162,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1141,58 +1243,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="75" t="s">
+      <c r="K4" s="79"/>
+      <c r="L4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1223,17 +1325,17 @@
       <c r="K5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1255,19 +1357,35 @@
         <v>65</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="39"/>
+      <c r="I6" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>71</v>
+      </c>
       <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="L6" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>74</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1298,7 +1416,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1327,7 +1445,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1356,7 +1474,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1385,7 +1503,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1414,7 +1532,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1443,7 +1561,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1474,7 +1592,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1503,7 +1621,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1532,7 +1650,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1561,7 +1679,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1712,7 +1830,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -2021,7 +2139,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2213,7 +2331,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2820,8 +2938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2853,43 +2971,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -2934,58 +3052,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="75" t="s">
+      <c r="K4" s="79"/>
+      <c r="L4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3016,17 +3134,17 @@
       <c r="K5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3048,19 +3166,35 @@
         <v>65</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="39"/>
+      <c r="I6" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>71</v>
+      </c>
       <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="L6" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>94</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3082,24 +3216,46 @@
       <c r="E7" s="69">
         <v>868183033853826</v>
       </c>
-      <c r="F7" s="68"/>
+      <c r="F7" s="68" t="s">
+        <v>89</v>
+      </c>
       <c r="G7" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="H7" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>86</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>88</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3124,19 +3280,37 @@
         <v>65</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="I8" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>97</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>88</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3161,19 +3335,37 @@
         <v>65</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="I9" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3198,19 +3390,35 @@
         <v>65</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="39"/>
+      <c r="I10" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>71</v>
+      </c>
       <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
+      <c r="L10" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" s="70">
+        <v>375000</v>
+      </c>
       <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="P10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3235,19 +3443,35 @@
         <v>65</v>
       </c>
       <c r="H11" s="37"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="39"/>
+      <c r="I11" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>71</v>
+      </c>
       <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="L11" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>92</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
+      <c r="O11" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>88</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3276,7 +3500,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3307,7 +3531,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3336,7 +3560,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3365,7 +3589,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3394,7 +3618,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3513,7 +3737,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -3545,7 +3769,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -3577,7 +3801,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -3726,7 +3950,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -3790,7 +4014,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -3886,7 +4110,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -3982,7 +4206,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4046,7 +4270,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4653,8 +4877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4686,43 +4910,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -4767,58 +4991,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="75" t="s">
+      <c r="K4" s="79"/>
+      <c r="L4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -4849,17 +5073,17 @@
       <c r="K5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4881,19 +5105,37 @@
         <v>65</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="I6" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>102</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4920,9 +5162,13 @@
         <v>65</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="54"/>
+      <c r="I7" s="54" t="s">
+        <v>103</v>
+      </c>
       <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
+      <c r="K7" s="39" t="s">
+        <v>100</v>
+      </c>
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
       <c r="N7" s="1"/>
@@ -4932,7 +5178,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4961,7 +5207,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4990,7 +5236,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5019,7 +5265,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5048,7 +5294,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5077,7 +5323,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5108,7 +5354,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5137,7 +5383,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5166,7 +5412,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5195,7 +5441,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5346,7 +5592,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -5655,7 +5901,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -5847,7 +6093,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6487,43 +6733,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -6568,58 +6814,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="75" t="s">
+      <c r="K4" s="79"/>
+      <c r="L4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -6650,17 +6896,17 @@
       <c r="K5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6694,7 +6940,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6733,7 +6979,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6762,7 +7008,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6791,7 +7037,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6820,7 +7066,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6849,7 +7095,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6878,7 +7124,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6909,7 +7155,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6938,7 +7184,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6967,7 +7213,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6996,7 +7242,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8288,43 +8534,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -8369,58 +8615,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="75" t="s">
+      <c r="K4" s="79"/>
+      <c r="L4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -8451,17 +8697,17 @@
       <c r="K5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8495,7 +8741,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8534,7 +8780,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8571,7 +8817,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8600,7 +8846,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8629,7 +8875,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8658,7 +8904,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8687,7 +8933,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8718,7 +8964,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8747,7 +8993,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8776,7 +9022,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8805,7 +9051,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10097,43 +10343,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -10178,58 +10424,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="75" t="s">
+      <c r="K4" s="79"/>
+      <c r="L4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -10260,17 +10506,17 @@
       <c r="K5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10304,7 +10550,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10343,7 +10589,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10372,7 +10618,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10401,7 +10647,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10430,7 +10676,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10459,7 +10705,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10488,7 +10734,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10519,7 +10765,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10548,7 +10794,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10577,7 +10823,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10606,7 +10852,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -11898,43 +12144,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -11979,58 +12225,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -12055,23 +12301,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12097,7 +12343,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12128,7 +12374,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12157,7 +12403,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12186,7 +12432,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12215,7 +12461,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12244,7 +12490,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12273,7 +12519,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12304,7 +12550,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12333,7 +12579,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12362,7 +12608,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12391,7 +12637,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_TechGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="38" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="126">
   <si>
     <t>STT</t>
   </si>
@@ -358,6 +358,72 @@
   </si>
   <si>
     <t>014.225.007.016,01102</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180711</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module GPS</t>
+  </si>
+  <si>
+    <t>Thay module GPS</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>124.158.005.014,16873</t>
+  </si>
+  <si>
+    <t>203.162.121.025,09007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG.007.---15.310517 </t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn 4v4</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn 4v4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG.007.---16.051017 </t>
+  </si>
+  <si>
+    <t>Kiểm tra lại dịch vụ trên server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG.007.---13.060116 </t>
+  </si>
+  <si>
+    <t>Thiết bị không sáng led memory</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00002.180125</t>
+  </si>
+  <si>
+    <t>203.162.121.025,09008</t>
+  </si>
+  <si>
+    <t>Đèn memory không sáng</t>
+  </si>
+  <si>
+    <t>Fomat lại thẻ nhớ, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>203.162.121.025,09009</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liên tục</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nạp lại FW</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
   </si>
 </sst>
 </file>
@@ -1129,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2938,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4877,8 +4943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showZeros="0" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5169,13 +5235,25 @@
       <c r="K7" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="L7" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>124</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>125</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
       <c r="U7" s="72"/>
@@ -5624,7 +5702,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -5901,7 +5979,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -6029,7 +6107,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -6093,7 +6171,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6700,8 +6778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6928,16 +7006,32 @@
         <v>65</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="39"/>
+      <c r="I6" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>107</v>
+      </c>
       <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="1"/>
+      <c r="L6" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="N6" s="70">
+        <v>385000</v>
+      </c>
       <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="P6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
       <c r="U6" s="71" t="s">
@@ -6968,15 +7062,29 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="54"/>
-      <c r="J7" s="39"/>
+      <c r="J7" s="39" t="s">
+        <v>104</v>
+      </c>
       <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="1"/>
+      <c r="L7" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="N7" s="70">
+        <v>385000</v>
+      </c>
       <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="P7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
       <c r="U7" s="72"/>
@@ -7393,7 +7501,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -7606,7 +7714,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -7894,7 +8002,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -8501,8 +8609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B8"/>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8724,21 +8832,41 @@
       <c r="E6" s="69">
         <v>869668021846187</v>
       </c>
-      <c r="F6" s="68"/>
+      <c r="F6" s="68" t="s">
+        <v>89</v>
+      </c>
       <c r="G6" s="68" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="I6" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
       <c r="U6" s="71" t="s">
@@ -8761,23 +8889,39 @@
         <v>67</v>
       </c>
       <c r="E7" s="69">
-        <v>867330023790176</v>
+        <v>867330021504629</v>
       </c>
       <c r="F7" s="68"/>
       <c r="G7" s="68" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="39"/>
+      <c r="I7" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>113</v>
+      </c>
       <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="L7" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>112</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
       <c r="U7" s="72"/>
@@ -8798,23 +8942,43 @@
         <v>67</v>
       </c>
       <c r="E8" s="69">
-        <v>867330065866153</v>
+        <v>861693037604923</v>
       </c>
       <c r="F8" s="68"/>
       <c r="G8" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="H8" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>112</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>31</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
       <c r="U8" s="72"/>
@@ -9170,7 +9334,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -9202,7 +9366,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -9447,7 +9611,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -9639,7 +9803,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -9703,7 +9867,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -10310,8 +10474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10538,16 +10702,30 @@
         <v>65</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="54"/>
+      <c r="I6" s="54" t="s">
+        <v>121</v>
+      </c>
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="L6" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>123</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="66"/>
       <c r="U6" s="71" t="s">
@@ -10577,16 +10755,32 @@
         <v>65</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="54"/>
+      <c r="I7" s="54" t="s">
+        <v>118</v>
+      </c>
       <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="K7" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
       <c r="U7" s="72"/>
@@ -10971,7 +11165,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -11003,7 +11197,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -11248,7 +11442,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -11440,7 +11634,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -11504,7 +11698,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_TechGlobal.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="126">
   <si>
     <t>STT</t>
   </si>
@@ -267,12 +267,6 @@
     <t>203.162.121.024,01202</t>
   </si>
   <si>
-    <t>Lỗi giao tiếp cổng COM</t>
-  </si>
-  <si>
-    <t>Xử lý lại cổng COM</t>
-  </si>
-  <si>
     <t>BT</t>
   </si>
   <si>
@@ -283,9 +277,6 @@
   </si>
   <si>
     <t>Lỗi module GSM/GPS</t>
-  </si>
-  <si>
-    <t>Thay module GSM/GPS</t>
   </si>
   <si>
     <t>LE.1.00.---06.191010</t>
@@ -399,9 +390,6 @@
     <t>Thiết bị không sáng led memory</t>
   </si>
   <si>
-    <t>X.4.0.0.00002.180125</t>
-  </si>
-  <si>
     <t>203.162.121.025,09008</t>
   </si>
   <si>
@@ -424,6 +412,18 @@
   </si>
   <si>
     <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>Báo giá khách không sửa chữa</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Lỗi cổng RS232</t>
+  </si>
+  <si>
+    <t>Xử lý lại cổng RS232</t>
   </si>
 </sst>
 </file>
@@ -1411,7 +1411,9 @@
       <c r="B6" s="63">
         <v>44930</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="63">
+        <v>44936</v>
+      </c>
       <c r="D6" s="68" t="s">
         <v>44</v>
       </c>
@@ -1431,17 +1433,17 @@
       </c>
       <c r="K6" s="39"/>
       <c r="L6" s="39" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>18</v>
@@ -3220,7 +3222,9 @@
       <c r="B6" s="63">
         <v>44930</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="63">
+        <v>44936</v>
+      </c>
       <c r="D6" s="68" t="s">
         <v>70</v>
       </c>
@@ -3233,24 +3237,24 @@
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="54" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J6" s="39" t="s">
         <v>71</v>
       </c>
       <c r="K6" s="39"/>
       <c r="L6" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>19</v>
@@ -3275,7 +3279,9 @@
       <c r="B7" s="63">
         <v>44930</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="63">
+        <v>44936</v>
+      </c>
       <c r="D7" s="68" t="s">
         <v>70</v>
       </c>
@@ -3283,41 +3289,41 @@
         <v>868183033853826</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G7" s="68" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I7" s="54" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K7" s="39" t="s">
         <v>71</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M7" s="39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R7" s="37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
@@ -3334,7 +3340,9 @@
       <c r="B8" s="63">
         <v>44930</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="63">
+        <v>44936</v>
+      </c>
       <c r="D8" s="68" t="s">
         <v>70</v>
       </c>
@@ -3347,32 +3355,32 @@
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="54" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K8" s="39" t="s">
         <v>71</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M8" s="39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R8" s="37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
@@ -3389,7 +3397,9 @@
       <c r="B9" s="63">
         <v>44930</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="63">
+        <v>44936</v>
+      </c>
       <c r="D9" s="68" t="s">
         <v>70</v>
       </c>
@@ -3402,26 +3412,26 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K9" s="39" t="s">
         <v>71</v>
       </c>
       <c r="L9" s="39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M9" s="39" t="s">
         <v>38</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>19</v>
@@ -3444,7 +3454,9 @@
       <c r="B10" s="63">
         <v>44930</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="63">
+        <v>44936</v>
+      </c>
       <c r="D10" s="68" t="s">
         <v>70</v>
       </c>
@@ -3457,31 +3469,27 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J10" s="39" t="s">
         <v>71</v>
       </c>
       <c r="K10" s="58"/>
       <c r="L10" s="58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M10" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" s="70">
-        <v>375000</v>
-      </c>
-      <c r="O10" s="39"/>
+        <v>122</v>
+      </c>
+      <c r="N10" s="70"/>
+      <c r="O10" s="39" t="s">
+        <v>123</v>
+      </c>
       <c r="P10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="37" t="s">
-        <v>35</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
       <c r="U10" s="72"/>
@@ -3497,7 +3505,9 @@
       <c r="B11" s="63">
         <v>44930</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="63">
+        <v>44936</v>
+      </c>
       <c r="D11" s="68" t="s">
         <v>70</v>
       </c>
@@ -3510,30 +3520,30 @@
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="54" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>71</v>
       </c>
       <c r="K11" s="39"/>
       <c r="L11" s="39" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M11" s="39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R11" s="37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
@@ -3835,7 +3845,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -4016,7 +4026,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -4336,7 +4346,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4454,7 +4464,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -4943,7 +4953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
@@ -5159,7 +5169,9 @@
       <c r="B6" s="63">
         <v>44930</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="63">
+        <v>44936</v>
+      </c>
       <c r="D6" s="68" t="s">
         <v>69</v>
       </c>
@@ -5172,26 +5184,26 @@
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="39" t="s">
         <v>99</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>102</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>18</v>
@@ -5216,7 +5228,9 @@
       <c r="B7" s="63">
         <v>44930</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="63">
+        <v>44936</v>
+      </c>
       <c r="D7" s="68" t="s">
         <v>69</v>
       </c>
@@ -5229,30 +5243,30 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="39" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M7" s="39" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R7" s="37" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
@@ -6994,7 +7008,9 @@
       <c r="B6" s="63">
         <v>44930</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="63">
+        <v>44936</v>
+      </c>
       <c r="D6" s="68" t="s">
         <v>68</v>
       </c>
@@ -7007,24 +7023,24 @@
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="54" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K6" s="39"/>
       <c r="L6" s="54" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N6" s="70">
         <v>385000</v>
       </c>
       <c r="O6" s="39"/>
       <c r="P6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>18</v>
@@ -7049,7 +7065,9 @@
       <c r="B7" s="63">
         <v>44930</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="63">
+        <v>44936</v>
+      </c>
       <c r="D7" s="68" t="s">
         <v>68</v>
       </c>
@@ -7063,21 +7081,21 @@
       <c r="H7" s="37"/>
       <c r="I7" s="54"/>
       <c r="J7" s="39" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K7" s="39"/>
       <c r="L7" s="54" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M7" s="39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N7" s="70">
         <v>385000</v>
       </c>
       <c r="O7" s="39"/>
       <c r="P7" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>18</v>
@@ -8825,7 +8843,9 @@
       <c r="B6" s="63">
         <v>44930</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="63">
+        <v>44936</v>
+      </c>
       <c r="D6" s="68" t="s">
         <v>67</v>
       </c>
@@ -8833,33 +8853,33 @@
         <v>869668021846187</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G6" s="68" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="54" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K6" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="L6" s="39" t="s">
         <v>113</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>116</v>
       </c>
       <c r="M6" s="39" t="s">
         <v>38</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>19</v>
@@ -8884,7 +8904,9 @@
       <c r="B7" s="63">
         <v>44930</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="63">
+        <v>44936</v>
+      </c>
       <c r="D7" s="68" t="s">
         <v>67</v>
       </c>
@@ -8897,24 +8919,24 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="39" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K7" s="39"/>
       <c r="L7" s="39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M7" s="39" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>18</v>
@@ -8937,7 +8959,9 @@
       <c r="B8" s="63">
         <v>44930</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="63">
+        <v>44936</v>
+      </c>
       <c r="D8" s="68" t="s">
         <v>67</v>
       </c>
@@ -8949,29 +8973,29 @@
         <v>65</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I8" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" s="39" t="s">
         <v>109</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="L8" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M8" s="39" t="s">
-        <v>112</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>18</v>
@@ -10475,7 +10499,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10690,7 +10714,9 @@
       <c r="B6" s="63">
         <v>44930</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="63">
+        <v>44936</v>
+      </c>
       <c r="D6" s="68" t="s">
         <v>66</v>
       </c>
@@ -10703,22 +10729,22 @@
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="54" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>18</v>
@@ -10743,7 +10769,9 @@
       <c r="B7" s="63">
         <v>44930</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="63">
+        <v>44936</v>
+      </c>
       <c r="D7" s="68" t="s">
         <v>66</v>
       </c>
@@ -10756,24 +10784,24 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="54" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="39" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M7" s="39" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>19</v>
